--- a/inst/example_input_xlsx/demo_net_input.xlsx
+++ b/inst/example_input_xlsx/demo_net_input.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Google Drive HDD\UKZN\UKZN Phd\PhD Thesis\Chapter 3 - autoLIM\autoLIM ESM submission\SI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B04A5C-3D5B-4255-B20B-36BFFFD34406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35862ADB-3A39-4022-89BF-B514D4592E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4815" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summer" sheetId="1" r:id="rId1"/>
@@ -904,6 +899,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1035,6 +1031,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1187,5 +1184,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/example_input_xlsx/demo_net_input.xlsx
+++ b/inst/example_input_xlsx/demo_net_input.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35862ADB-3A39-4022-89BF-B514D4592E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AD4D77-8F1C-4B9E-A4B1-724F282FA75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4815" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summer" sheetId="1" r:id="rId1"/>
@@ -238,16 +238,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,18 +586,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="3" customWidth="1"/>
-    <col min="2" max="4" width="10.109375" style="3" customWidth="1"/>
-    <col min="5" max="8" width="14.21875" style="3" customWidth="1"/>
-    <col min="9" max="10" width="12.33203125" style="3" customWidth="1"/>
-    <col min="11" max="14" width="10.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -650,97 +648,97 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>10000.200000000001</v>
       </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>800</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>1100</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>2600</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>2000</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>100</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>3000</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>55</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>0.75</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>0.75</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -754,51 +752,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -907,51 +907,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1039,51 +1041,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/inst/example_input_xlsx/demo_net_input.xlsx
+++ b/inst/example_input_xlsx/demo_net_input.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AD4D77-8F1C-4B9E-A4B1-724F282FA75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C53BB8-76BA-42D6-8CA3-BD45968B286C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4815" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4815" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summer" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
   <si>
     <t>Compartment</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>EX_upper</t>
+  </si>
+  <si>
+    <t>0.1 * DetNLNode</t>
+  </si>
+  <si>
+    <t>0.1 * Plant</t>
+  </si>
+  <si>
+    <t>0.1 * Invert</t>
+  </si>
+  <si>
+    <t>0.1 * Vert</t>
   </si>
 </sst>
 </file>
@@ -586,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,11 +666,11 @@
       <c r="B2">
         <v>10000.200000000001</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -686,11 +698,11 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -715,6 +727,9 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
       <c r="O4" t="s">
         <v>25</v>
       </c>
@@ -735,8 +750,8 @@
       <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="M5">
-        <v>1</v>
+      <c r="N5" t="s">
+        <v>62</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -753,7 +768,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L4" sqref="L4:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,11 +824,11 @@
       <c r="B2">
         <v>8000</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -841,11 +856,11 @@
       <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -867,11 +882,8 @@
       <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
+      <c r="N4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -890,11 +902,8 @@
       <c r="H5" t="s">
         <v>37</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
+      <c r="N5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +917,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K2" sqref="K2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,17 +973,11 @@
       <c r="B2">
         <v>7111</v>
       </c>
-      <c r="K2">
-        <v>200</v>
-      </c>
-      <c r="L2">
-        <v>1200</v>
-      </c>
-      <c r="M2">
-        <v>180</v>
-      </c>
-      <c r="N2">
-        <v>380</v>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -990,17 +993,11 @@
       <c r="D3">
         <v>1000</v>
       </c>
-      <c r="K3">
-        <v>700</v>
-      </c>
-      <c r="L3">
-        <v>1300</v>
-      </c>
-      <c r="M3">
-        <v>300</v>
-      </c>
-      <c r="N3">
-        <v>1300</v>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1010,8 +1007,8 @@
       <c r="B4">
         <v>822</v>
       </c>
-      <c r="K4">
-        <v>1</v>
+      <c r="N4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1021,14 +1018,8 @@
       <c r="B5">
         <v>222</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
+      <c r="N5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1041,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,9 +1147,6 @@
       <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="M4">
         <v>1</v>
       </c>
@@ -1178,9 +1166,6 @@
       </c>
       <c r="H5" t="s">
         <v>46</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
       </c>
       <c r="M5">
         <v>1</v>
